--- a/guias/personality_codebook.xlsx
+++ b/guias/personality_codebook.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d/Dropbox (Personal)/My Mac (mokoto)/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d/Dropbox (Personal)/_git/psi4035_examples/guias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A78ABAE-732C-6546-B30B-C6B8B6F3C7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0314AB73-3004-7D4E-AF22-AD220BE706C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{F1C15651-CA3C-2C42-9404-B02DA37296A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{F1C15651-CA3C-2C42-9404-B02DA37296A1}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="4" r:id="rId1"/>
     <sheet name="variable_table" sheetId="1" r:id="rId2"/>
     <sheet name="expected_scales" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="tabla_a_r" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variable_table!$A$1:$E$80</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CEFBEE-6BCD-7D48-BE88-DC59CB90D01F}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2256,10 +2256,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3515DC1-B1F6-5D40-8049-33B4548BF187}">
-  <dimension ref="A1:E63"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2286,7 +2287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>Participant's ID</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>Am the life of the party.</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>Feel little concern for others (recoded).</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>Am always prepared.</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>Get stressed out easily.</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>Have a rich vocabulary.</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>Don’t talk a lot (recoded).</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>Am interested in people.</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>Leave my belongings around (recoded).</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>Am relaxed most of the time (recoded).</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>Have difficulty understanding abstract ideas (recoded).</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>Feel comfortable around people.</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>Insult people (recoded).</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>Pay attention to details.</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>Worry about things.</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>Have a vivid imagination.</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>Keep in the background (recoded).</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>Sympathize with others’ feelings.</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>Make a mess of things (recoded).</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>Seldom feel blue (recoded).</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>Am not interested in abstract ideas.</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>Start conversations.</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>Am not interested in other people’s problems (recoded).</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>Get chores done right away.</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>Am easily disturbed.</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>Have excellent ideas.</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>Have little to say (recoded).</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>Have a soft heart.</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>Often forget to put things back in their proper place (recoded).</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>Get upset easily.</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>Do not have a good imagination.</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>Talk to a lot of different people at parties.</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>Am not really interested in others (recoded).</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>Like order.</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>Change my mood a lot.</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>Am quick to understand things.</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>Don’t like to draw attention to myself (recoded).</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>Take time out for others.</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>Shirk my duties (recoded).</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>Have frequent mood swings.</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>Use difficult words.</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>Don’t mind being the center of attention.</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>Feel others’ emotions.</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>Follow a schedule.</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>Get irritated easily.</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>Spend time reflecting on things.</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>Am quiet around strangers (recoded).</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>Make people feel at ease.</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>I am exacting in my work.</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>Often feel blue.</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>At times, I think I am no good at all (recoded).</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="C63" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3512,8 +3513,31 @@
         <v/>
       </c>
     </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="68" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="69" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="70" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="71" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="72" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="73" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="74" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="75" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="76" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="77" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="78" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="79" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="80" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:E80" xr:uid="{E3515DC1-B1F6-5D40-8049-33B4548BF187}"/>
+  <autoFilter ref="A1:E80" xr:uid="{E3515DC1-B1F6-5D40-8049-33B4548BF187}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="rs"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3522,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA87AB86-20D1-1C41-9220-3A113F9588B5}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4918,7 +4942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB4AA6-5A37-F44F-AE48-4CA90A83661F}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
